--- a/deuChatbot/research_result/table_to_json(1500_100).xlsx
+++ b/deuChatbot/research_result/table_to_json(1500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27181,6 +27181,6686 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 준비물, 주제, 화지 크기 및 시험 시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.8091658591432194</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 준비해야 합니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절이 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '악보와 줄자'와 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절이 사용됩니다.
+   - **시간**: 5시간 동안 진행됩니다.
+실기시험은 각 분야별로 기초적인 디자인 능력을 평가하며, 제공된 사물과 이미지를 활용하여 창의성을 발휘해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 실기 종목, 준비물, 주제, 화지 크기 및 시간을 정확하게 나열하고 있습니다. 그러나 '사고의 전환'의 실기 주제에 대한 구체적인 내용이 원본에 비해 부족하여 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 '사고의 전환'의 실기 주제에 대한 설명이 원본과 다소 다르게 표현되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목과 준비물, 주제 등을 명확하게 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스러워 높은 점수를 부여했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으나, '사고의 전환' 부분에서 주제에 대한 설명이 부족하여 약간의 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, '사고의 전환'의 실기 주제에 대한 구체적인 설명이 부족하여 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, '사고의 전환'에 대한 설명이 다소 모호하여 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 높은 점수를 부여했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.8125868448702094</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환'입니다.
+- **기초디자인**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+  - **실기주제**: 주제 A와 주제 B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+    - **주제 A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+    - **주제 B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+  - **화지 크기**: 켄트지3절
+  - **시간**: 5시간
+- **사고의 전환**:
+  - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구 (상세 준비물은 위와 동일)
+  - **실기주제**: 상세 주제는 제공되지 않았습니다. 하지만 일반적으로는 주어진 사물을 새로운 관점에서 재해석하는 주제가 될 것입니다.
+  - **화지 크기**: 켄트지3절
+  - **시간**: 5시간
+위와 같이 디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환'이며, 각각 준비물, 주제, 화지 크기 및 시간이 동일합니다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 배드민턴과 축구 종목의 인정 대회를 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.8795423783125316</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴 남자 종목의 인정대회는 다음과 같습니다:
+1. 한국중·고연맹회장기전국학생선수권대회
+2. 대한배드민턴협회장기전국종별배드민턴선수권대회
+3. 전국학교대항배드민턴선수권대회
+4. 전국종별배드민턴선수권대회
+5. 전국연맹종별배드민턴선수권대회
+6. 전국체육대회
+7. 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+8. 광역시·도 협회장기 종별대회
+축구 남자 종목의 인정대회는 다음과 같습니다:
+1.춘계한국고등학교축구연맹전
+2.추계한국고등학교축구연맹전
+3.대한축구협회장배전국고등학교축구대회
+4.문화체육관광부장관기전국고등학교축구대회
+5.문화체육관광부장관배전국고등학교축구대회
+6.백운기전국고등학교축구대회
+7.전국고등축구리그(권역별고교축구리그)
+8.전국고등축구리그왕중왕전
+9.무학기전국고등학교축구대회
+10.청룡기전국고등학교축구대회
+11.백록기전국고등학교축구대회
+12.금강대기전국고등학교축구대회
+13.대통령금배전국고등학교축구대회
+14.금석배전국고등학생축구대회
+15.부산MBC전국고등학생축구대회
+16.K리그 U18 챔피언십
+17.K리그 U18 챔피언십왕중왕전
+이러한 대회에서 우수한 성적을 거두면 경기지도학과 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제 A와 주제 B의 내용, 시험 당일의 절차 및 예시를 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 기초디자인 실기시험의 주제에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.7700251053262682</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 주제 A와 주제 B입니다. 각 주제는 다음과 같이 구성되어 있습니다:
+1. **주제 A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. **주제 B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 주제 A와 주제 B 각각에서 1개씩을 추첨하여 연결된 주제를 그려야 합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+이 주제들은 제공된 사물과 이미지 이외의 형상을 표현하지 않아야 하며, 제공된 사물은 모두 1회 이상 표현해야 합니다. 또한 제공된 사물의 색상은 변경하지 말아야 합니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7360391202043276</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 관련 정보는 제공된 데이터에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에 포함된 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.926506747476267</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 28명의 신입생 선발 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 모집 인원에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 그 정보를 부정하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 없기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성이나 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 모집 인원에 대한 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보의 제공 방식이 적절하지 않습니다. 그러나 웹사이트 링크를 제공한 점은 긍정적입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 정보의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6028134266486864</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 다군 일반 학생 전형의 모집인원이 없습니다. 다른 계열이나 단과대학에서의 모집인원만 기재되어 있습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본의 내용과 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "정원 내 모집 인원"이라는 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받았지만, 관련성과 유창성에서는 상대적으로 높은 점수를 받았습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 의미와 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수에 대한 구체적인 정보를 제공하지 않고, 표준 변환 점수와 관련된 내용으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있으며, 잘못된 정보로 이어질 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 수능 영어 등급 점수에 대한 직접적인 정보를 제공하지 않고 다른 정보를 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보인 등급별 점수에 대한 내용이 포함되어 있지 않아 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 수능 영어 등급에 따른 점수에 대한 구체적인 내용을 제공하지 않고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 부분이 있지만, 내용의 일관성 부족으로 인해 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.6648125967264091</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 표준 변환 점수 합을 통해 얻을 수 있습니다. 예를 들어, 특정 단과대학의 경우, "수능 4개 영역 (가산점 포함) 표준 변환 점수 합" 항목에서 평균이 427.00이고 표준 편차가 11.25입니다. 이는 수능 영어 등급에 따른 점수가 표준 변환 점수로 변환된 것입니다.
+특정 단과대학의 경우, "영어 등급" 항목에서 평균이 3.71이고 표준 편차가 0.69입니다. 이는 영어 등급에 따른 점수가 표준 변환 점수로 변환된 것입니다.
+따라서, 수능 영어 등급에 따른 점수를 정확히 알려드리기 위해서는 특정 단과대학의 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합" 항목을 참조해야 합니다. 필요하시다면, 해당 정보를 제공해 드리겠습니다.
+만약 더 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 정보와 완전히 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 지원 자격에 대한 정보를 제공하고 있지만, 원문에서의 핵심 내용과는 상반된 정보를 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 되어 있지만, 원문과의 내용 불일치로 인해 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 다르며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7028964067496586</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 농어촌학생전형으로 지원 가능합니다. 지원 자격에 따르면, 예술고를 포함한 특수목적고 학생들은 일반고와 동일하게 지원이 가능합니다.
+제출서류는 고교 졸업증명서와 지원자 본인, 부모 초본 각 1부(총 3부) 또는 고교 졸업증명서와 지원자 본인 초본 1부 중 하나를 제출하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 기록이 228~231cm로 잘못 제시되었으며, 이는 원본 텍스트의 218~221cm와 다릅니다. 배점은 정확하지만, 기록의 부정확성으로 인해 전체적인 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 기록의 수치가 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 여자 제자리 멀리뛰기 4등급의 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 일관된 설명을 제공합니다. 그러나 기록의 부정확성으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 기록의 수치가 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 배점은 정확하지만, 기록의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제에 맞는 정보를 제공합니다. 그러나 기록의 오류로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 전달되며 이해하기 쉽습니다. 그러나 기록의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.9097317893004921</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 228~231cm이며, 이에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가적으로 제공된 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가적인 비율 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 약간의 혼란이 있을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.7455438554585749</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+출결 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 없다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트와 상반되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 담고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 응답은 동의대학교와 물리치료학과에 대한 정보를 포함하고 있지만, 잘못된 정보로 인해 주제와 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원본 텍스트의 사실과 완전히 다릅니다. 모집 인원이 없다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 응답의 의미가 원본 텍스트와 전혀 일치하지 않으며, 맥락에 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.7987299169331031</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 모집인원이 없습니다. 자세한 정보는 입학 안내 홈페이지를 참조하시거나 공지사항을 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 내용을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.5275686840951729</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저 기준이 없다는 내용을 잘 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.5162126417248184</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준에 대한 정보가 제공된 문서에서 명시되어 있지 않습니다. 수능 최저기준이 없거나 특정 기준을 따르지 않는 것으로 보입니다.
+만약 더 자세한 정보를 원하시면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 정확하게 나열하고 있습니다. 그러나 "라이프융합학부"가 2023년도에도 신설되었다는 주장은 사실이 아닐 수 있으며, 이로 인해 약간의 부정확성이 발생합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 대부분의 정보를 일관되게 제공하지만, "라이프융합학부"에 대한 언급이 2023년도와의 비교를 포함하고 있어 약간의 일관성 문제가 발생합니다. 이는 원본 텍스트와의 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 "라이프융합학부"에 대한 추가 설명이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, "라이프융합학부"의 신설 여부에 대한 주장이 정확하지 않을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "라이프융합학부"에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6942472074179523</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설되는 학과로는 "심리학과"와 "스마트항만물류학과", "창업투자경영학과", "라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)", "경기지도학과"가 있습니다. 그러나 "라이프융합학부"는 2023년도에도 신설되었던 것으로 보입니다. 따라서 2024년도에 새로 추가된 학과는 "심리학과", "스마트항만물류학과", "창업투자경영학과", "경기지도학과"가 됩니다.
+위 정보를 바탕으로 정확한 답변을 드렸습니다. 만약 더 자세한 내용이 필요하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참고해주세요.</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 구체적인 정보를 제공하지 않고, 오히려 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있습니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 그에 대한 부정확한 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 웹사이트를 참조하라고 안내하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 언급이 없기 때문에 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 정보의 부재로 인해 내용이 불완전하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 어렵지 않지만, 정보의 부재로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6333659727450904</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 &lt;나&gt;군 학생부종합(성인학습자전형)의 전형요소 반영비율에 대한 구체적인 데이터가 없습니다. 이와 관련하여 자세한 내용을 확인하려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주세요. 해당 페이지에서 필요한 정보를 찾으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 "예술디자인체육대학 패션디자인학과"가 가산점을 적용한다고 잘못 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 질문에 대한 답변으로 보이지만, 원본 텍스트와 관련이 적은 정보(예술디자인체육대학 패션디자인학과에 대한 정보)를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 일관성이 부족합니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.6798861844550135</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>동의대학교에서 수능 가산점을 적용하는 학과로는 "예술디자인체육대학 패션디자인학과"가 있습니다. 이 학과는 일반학생전형에서 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균이 427.00으로, 다른 학과들에 비해 높은 점수를 요구하고 있습니다.
+다른 학과들은 가산점을 적용하지 않거나, 수능 가산점이 적용되는 경우에도 일반적으로 낮은 점수를 요구합니다. 따라서 "예술디자인체육대학 패션디자인학과"는 수능 가산점이 적용되는 학과로 알려져 있습니다.
+만약 더 자세한 정보가 필요하시다면, 제공된 링크를 참조해 보시기 바랍니다: https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 가군 수능 성적 반영 방식에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답에서는 수능 성적이 학생부종합전형에 포함된다고 잘못 설명하고 있습니다. 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있으나, 생성된 응답은 학생부종합전형에 포함된다고 주장하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보(학생부종합전형에 대한 설명)를 포함하고 있어 관련성이 낮습니다. 원문에서 요구하는 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되어 있지만, 주제가 일관되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 수능 성적 반영 방식에 대한 잘못된 설명이 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락과 맞지 않는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6361326515601453</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 학생부종합전형에 포함되어 평가됩니다. 특히, 가산점이 포함된 수능 4개 영역의 표준 변환 점수 합이 평균과 표준 편차를 가지고 있습니다.
+예를 들어, 인문사회과학대학의 국어국문학과에서는:
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 419.33이고,
+- 표준 편차는 9.73입니다.
+이와 같이, 가군에서 수능 성적은 각 모집단위별로 평균과 표준 편차를 가지고 있으며, 이 점수 합이 학생부종합전형의 평가에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 날짜와 요일이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.8103521018109457</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024. 01. 16.(화)에 있습니다.
+더 자세한 정보를 얻으시려면 [입학 안내 홈페이지](http://ipsi.deu.ac.kr/main.do)를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있습니다. 특히, '예술디자인체육대학 경기지도학과 (신설)'와 '예술디자인체육대학 패션디자인학과 교직'이 언급되었으나, 이는 원문에 포함되지 않은 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서 제외된 학과 목록과 생성된 응답의 내용이 일치하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 떨어집니다. 원문에서 제외된 학과에 대한 정확한 정보를 제공하지 않기 때문에 주제와의 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에 명시된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.6751569694018487</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 다음과 같은 모집단위가 제외되었습니다.
+- 예술디자인체육대학 경기지도학과 (신설)
+- 예술디자인체육대학 패션디자인학과 교직
+이 정보는 제공된 데이터에서 확인할 수 있습니다. 만약 추가로 궁금한 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8639635226168006</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 수능 최저기준 항목에 "수능최저기준 없음"이라고 명시되어 있습니다.
+따라서, 2024학년도 동의대학교에서 다군 전형을 신청하려는 학생들은 수능 최저기준을 충족시키지 않아도 됩니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 학부에서 학과로 분리된 학과들에 대한 정보를 포함하고 있으며, 일부 학과의 명칭이 정확하게 언급되었습니다. 그러나 모든 학과의 세부 사항이 포함되지 않았고, 일부 정보가 생략되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 모든 학과에 대한 정보를 일관되게 제공하지 않아서 일관성이 떨어집니다. 특히, 원본 텍스트에 나열된 모든 학과의 변경 사항이 포함되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 학부에서 학과로 분리된 학과들에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 세부 사항이 누락되어 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 모든 세부 사항이 포함되지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 주제를 잘 전달하고 있습니다. 그러나 일부 세부 사항이 누락되어 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보가 생략되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.6261382900611621</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"와 "경제금융보험학과"가 학부에서 학과로 분리되었습니다. 또한, "정보경영학부(경영정보학, e비즈니스학)"는 두 개의 학과로 나뉘어졌습니다. 이외에도 여러 학과들이 학부에서 학과로 분리되거나 명칭이 변경되었습니다. 자세한 내용은 공식 웹사이트를 참조하시기 바랍니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수 가능성 및 입학안내 홈페이지 언급)도 포함되어 있어 유용합니다. 그러나 "2024년 1월 6일(토)까지입니다"라는 표현은 마감 시간을 명확히 하지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 일관되게 전달하고 있으며, 추가 정보도 원본 텍스트와 충돌하지 않습니다. 다만, "까지입니다"라는 표현이 마감 시간을 명확히 하지 않아 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 답변하고 있으며, 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일과 시간은 정확하지만, "까지입니다"라는 표현이 마감 시간을 명확히 하지 않아 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 약간의 부족함이 있지만 여전히 좋은 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 마감 시간에 대한 명확한 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.7702502612344779</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 오후 18시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 일정과 기타 정보는 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도에 전형 요소 변화가 없다고 주장하지만, 원본 텍스트에서는 여러 전형의 요소 변화가 명확히 언급되고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 전형 요소의 변화를 설명하고 있지만, 생성된 응답은 변화가 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 정확한 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전형 요소 변화에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전형 요소 변화에 대한 잘못된 해석을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬우나, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.6675636210504197</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 반영비율이 변경된 전형은 없습니다. 모든 전형에서 서류 평균이 70%, 면접 평균이 30%로 동일하게 반영되고 있습니다.
+만약 다른 변화가 필요하다면, 학과 분리나 명칭 변경 등에 대한 정보를 확인해 보시는 것이 좋습니다. 예를 들어 아동학과와 금융경영학과의 신설, 라이프생활문화학과 등의 신설로 인한 전형 요소 변화가 있을 수 있습니다.
+더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기 비중이 100%라고 잘못 언급하고 있으며, 이는 원본 텍스트의 70%와 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공하고 있습니다. 실기 비중이 100%라는 주장은 원본의 70%와 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 전형에 대한 정보를 제공하지만, 실기 비중에 대한 잘못된 정보로 인해 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 주제를 가지고 있지만, 잘못된 사실로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 실기 비중에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 전반적으로 관련이 있지만, 잘못된 사실로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6998438058711399</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 전체 모집인원의 100%를 차지합니다. 즉, 수능 점수는 고려되지 않고, 실기 성적이 합격 기준을 결정하는 중요한 요소가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있지만, 원문에 명시된 내용 외에 추가된 정보가 있어 완전한 일치가 아닙니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 세부 전공을 언급하고 있으며, 추가적인 설명이 원문과 충돌하지 않기 때문에 전반적으로 일관성이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 질문한 내용에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 세부 전공에 대한 정보는 정확하지만, 추가된 설명이 원문에 포함되지 않은 내용이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 보이지만, 원문과의 완전한 일치를 고려할 때 약간의 차이가 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.8107979252487423</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설되는 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 구성하고 있습니다. 이 학부는 미래 사회에서 필요한 다양한 분야의 전문성을 갖춘 인재를 양성하기 위해 설립되었습니다.</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 태권도학과가 실기고사를 치른다고 주장하지만, 원본 텍스트에서는 체육학과와 레저스포츠학과가 실기고사를 치른다고 명시되어 있습니다. 따라서 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 학과와는 다른 학과를 언급하고 있으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 주제에 대한 적절한 답변이라고 보기 어렵습니다. 그러나 실기고사에 대한 언급이 있으므로 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 태권도학과에 대한 언급이 원본과 관련이 없기 때문에 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 태권도학과가 실기고사를 치른다는 주장은 사실이 아니며, 원본에서 언급된 학과와는 전혀 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보가 포함되어 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 태권도학과에 대한 언급은 원본의 내용과 일치하지 않으므로 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.6045734080427801</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 **태권도학과**입니다. 이외에는 다른 학과에서는 실기고사를 치르지 않습니다.
+참고로, 나군에서는 경기지도학과와 패션디자인학과 교직에서 실기고사를 치릅니다. 하지만 가군의 경우만 태권도학과에서 실기고사가 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 지원 가능한 학과를 정확하게 나열하고 있으나, "다른 학과는 이 전형을 통해 지원할 수 없습니다."라는 문장은 사실과 다를 수 있습니다. 원문에는 다른 학과에 대한 언급이 없기 때문에 이 부분은 다소 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 학과 목록과 일치하지만, "&lt;가&gt;군, &lt;나&gt;군"이라는 표현은 원문에 없으며, 이로 인해 일관성이 떨어집니다. 또한, "다른 학과는 이 전형을 통해 지원할 수 없습니다."라는 문장은 원문과의 일관성을 해칩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 실기/실적 위주 전형에 지원 가능한 학과에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, "&lt;가&gt;군, &lt;나&gt;군"이라는 표현이 다소 어색하게 느껴질 수 있습니다. 그러나 전반적인 흐름은 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 정보가 명확하게 전달됩니다. 그러나 "&lt;가&gt;군, &lt;나&gt;군"이라는 표현이 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, "다른 학과는 이 전형을 통해 지원할 수 없습니다."라는 부분은 정확하지 않을 수 있습니다. 원문에 명시된 내용이 아니기 때문입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성과 관련성, 유창성에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, "&lt;가&gt;군, &lt;나&gt;군"이라는 표현이 원문에 없기 때문에 의미의 적절성에서 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 특정 표현이 다소 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>0.7010252344968855</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "&lt;가&gt;군, &lt;나&gt;군"은 다음과 같은 학과에 지원할 수 있습니다:
+- 디자인조형학과
+- 체육학과
+- 레저스포츠학과
+- 태권도학과
+이러한 학과들은 실기/실적 위주 전형인 "&lt;가&gt;군, &lt;나&gt;군"에 지원할 수 있습니다. 다른 학과는 이 전형을 통해 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 라이프융합학부가 신설되었음을 언급하고 있지만, 현재 전공을 제공하지 않는다고 잘못된 정보를 포함하고 있습니다. 원본 텍스트에 따르면, 해당 학부는 세 가지 전공을 제공한다고 명시되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 전공이 제공된다고 명시하고 있지만, 생성된 응답은 전공이 제공되지 않는다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부와 관련된 정보를 제공하고 있으며, 전공에 대한 언급도 포함되어 있습니다. 그러나 모집 중지 상태에 대한 정보는 원본 텍스트의 주요 내용과는 다소 관련이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 모집 중지 상태에 대한 언급이 원본 텍스트의 내용과 다소 어색하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 전공이 제공되지 않는다고 잘못된 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0.7248420355497798</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었지만, 아직 모집 중지 상태입니다. 따라서 현재 라이프융합학부에서는 다음과 같은 전공을 제공하고 있지 않습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+2024년도에는 이 세 가지 전공이 포함되어 있을 예정이지만, 현재는 모집 중지 상태입니다. 자세한 내용은 공식 웹사이트를 참조하시거나 대학 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없고, 마이스터고에 대한 정보도 포함되어 있지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, 농어촌학생전형에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장 구조가 다소 복잡하여 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 약간의 정보 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 일부 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.6327504221699913</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>你是特殊高中的学生，根据提供的信息，你有可能申请동의大学的一般学生入学类型。具体来说：
+- **나군 - 수능 (일반학생전형)**: 특수목적고등학교 출신 학생은 지원 가능합니다.
+- **나군 - 실기/실적 (일반학생전형)**: 특수목적고등학교 출신 학생은 지원 가능합니다.
+但是，具体能否申请还需要查看东义大学的详细招生规定和要求。建议你访问东义大学官网（https://ipsi. deu. ac. kr/main. do）获取最准确的信息。
+如果你需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "영어영문학과"가 가장 많이 모집하는 학과라고 주장하지만, 원문에서는 "중어중국학과"와 "신소재공학과"가 가장 많이 모집하는 학과로 언급되고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성에 문제가 있어 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 맞지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 점수를 낮추었습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.7109880672620931</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과는 **"영어영문학과"**입니다. 이 학과는 모집 인원이 23명으로, 지원 인원이 56명이며 경쟁률이 2.43이라는 데이터를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 농어촌학생전형에 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고 출신자는 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 명시된 지원 불가 조건과 생성된 응답의 내용이 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 신뢰도는 낮습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 사실적 일치가 전혀 없으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 신뢰할 수 없는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.6200081894577015</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원할 수 있습니다. 
+특히, 2024학년도부터 전형명과 지원자격에 대한 변경 사항이 있으므로, 자세한 내용은 다음과 같이 확인해 보세요:
+- **전형명**: 학생부종합(농어촌학생전형)
+- **지원자격**:
+  - 일반고
+  - 자율고
+  - 특수목적고 (과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고)
+  - 특성화고 (특성(직업), 특성(대안))
+  - 영재학교
+  - 기타 (학력인정고, 방송통신고, 각종학교)
+  - 검정고시
+  - 외국고
+따라서, 특수목적고등학교 학생으로서도 동의대학교 농어촌학생전형을 통해 지원이 가능합니다. 자세한 사항은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의해 보시는 것이 좋습니다. [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부에 대한 데이터가 없다는 점을 언급하고 있으며, 이는 원본 텍스트와 일치합니다. 그러나 "다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하고 있지만, "다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다"라는 추가 정보는 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "deu. ac. kr" 부분에서 점이 포함된 형식이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 일관성 문제로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않으므로 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.7153677218159862</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 단과대학이나 모집단위의 정보만이 포함되어 있습니다. 필요하신 정보를 찾지 못한 것 같습니다. 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전형이나 단과대학의 정보만이 포함되어 있습니다"라는 부분은 원문에 명시되어 있지 않은 정보로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, "다른 전형이나 단과대학의 정보만이 포함되어 있습니다"라는 문구는 원문에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 필요한 정보를 찾지 못한 것에 대한 언급도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "deu. ac. kr" 부분에서 공백이 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원문과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보의 정확성을 잘 반영하고 있지만, 추가된 정보로 인해 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문구에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0.6773387249890492</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전형이나 단과대학의 정보만이 포함되어 있습니다. 필요하신 정보를 찾지 못한 것 같습니다. 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 관련된 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본에는 최초 합격자 등록에 대한 언급이 없으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 부족합니다. 특히 최초 합격자 등록에 대한 정보가 원본에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있어 대체로 관련성이 높습니다. 그러나 추가된 등록 정보가 원본과 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정이 명확하게 나열되어 있습니다. 그러나 원본과의 차이로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 추가되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 완전한 점수를 주기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다. 그러나 원본과의 차이로 인해 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0.813691250724721</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**
+   - 날짜: 2024년 2월 2일 (금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+2. **최초 합격자 등록**
+   - 날짜: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+3. **충원 합격자 발표 및 등록**
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행입니다.
+이상과 같이 합격자 발표 및 등록 일정을 알려드렸습니다. 자세한 내용은 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 명확한 날짜를 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로는 적절하지 않으며, 원본 텍스트의 핵심 정보를 다루지 않고 있습니다. 그러나 면접일정을 확인하는 방법에 대한 언급이 있어 일부 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 면접고사 일정에 대한 질문에 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.3131426223759321</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정 날짜에 대한 구체적인 정보가 없습니다. 면접고사는 일반적으로 정해진 시간에 대학에서 이루어집니다. 따라서, 면접일정을 확인하려면 해당 대학의 입학처 웹사이트나 모집 안내서를 참조하시거나, 직접 학교에 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "수능최저기준" 항목에 대한 언급은 원문에 포함되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "수능최저기준"에 대한 추가 정보는 원문에 없는 내용이므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "수능최저기준"에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 정확하게 반영하고 있지만, 추가된 정보가 원문에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 적절한 맥락을 유지하고 있습니다. 그러나 추가된 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 독자에게는 "수능최저기준"에 대한 언급이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.5425548633143013</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. "수능최저기준" 항목에는 "수능최저기준 없음"이라고만 기재되어 있습니다.
+더 자세한 정보를 얻으시려면, 해당 대학교의 공식 웹사이트인 https://ipsi. deu. ac. kr/main. do를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 잘 지지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.6638233953293379</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 최저학력 기준이 없습니다. 관련 정보는 제공된 데이터에서 확인할 수 있습니다. 더 자세한 내용이나 추가적인 질문이 있으시면 https://ipsi.deu.ac.kr/main.do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 첫 번째 충원합격자 발표 날짜를 잘못 기재하였습니다. 원본 텍스트에 따르면 첫 번째 발표는 2024년 2월 14일에 이루어지며, 생성된 응답에서는 2024년 2월 15일로 잘못 언급되었습니다. 두 번째 충원합격자 발표에 대한 정보도 원본과 다르게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 첫 번째 발표 날짜와 두 번째 발표 등록 시간에 대한 정보가 일관되지 않습니다. 이러한 불일치는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달합니다. 다만, 발표 날짜의 불일치로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 발표 날짜와 관련된 중요한 세부 사항이 잘못되었습니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 발표 날짜의 오류로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 발표 날짜의 오류로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.8469228242170437</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 진행됩니다. 
+- 첫 번째 충원합격자는 2024년 2월 15일(목) 09:00에 발표됩니다.
+- 두 번째 충원합격자는 2024년 2월 15일(목) 09:00~16:00 사이에 등록이 가능합니다.
+- 세 번째 이후의 충원합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 이루어집니다.
+따라서, 충원합격자 발표는 2024년 2월 15일부터 시작되며, 세 번째 이후의 경우는 개별 전화통보를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 구체적인 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 발표 일정에 대한 정보를 제공하지 않기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 일정 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 부족으로 인해 완전한 흐름을 제공하지는 못합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트의 정보와 연결되지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절한 정보를 제공하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉽지만, 정보의 부족으로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.4607052503822715</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자의 발표 시점에 대한 명확한 답변을 찾지 못했습니다. 추가합격자 발표와 관련된 자세한 일정은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주시기 바랍니다. 해당 사이트에서는 최신 정보와 공고가 게시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명확히 설명하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 추가 모집이 있을 것이라고 명시하고 있지만, 생성된 응답은 그에 반하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가 모집에 대한 구체적인 정보를 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있으며, 사실과 다르게 추가 모집이 없다고 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0.4339299107244313</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 모집단위별 정원 내 모집 인원과 지원 자격 등은 위에서 나열되었습니다. 만약 추가 모집에 대한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시거나 관계된 부서에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 위한 입학 제도에 대한 설명으로, 원본 텍스트의 구체적인 내용(모집단위, 모집인원, 제출서류 등)을 포함하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 구체적인 전형 정보와 제출 서류에 대한 내용을 포함하고 있지만, 생성된 응답은 전형의 일반적인 설명에 그치고 있습니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 포함하고 있지만, 원본 텍스트의 구체적인 정보와는 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 설명을 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0.5389899987398161</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 제도입니다. 이 제도는 재직자, 성인학습자 등 다양한 배경을 가진 사람들을 위한 특별한 기회를 제공합니다. 평생학습자전형의 서류평가 영역에는 공동체역량, 학업역량, 전공적합성 등이 포함되며, 각 영역에 대해 세부적인 평가 기준과 배점이 정해져 있습니다.
+또한 면접평가도 이루어지는데, 이는 지원동기 및 학업계획, 문제 해결 능력, 전공적합성 등을 평가하는 데 사용됩니다. 면접은 개별면접으로 진행되며, 시간은 10분 이내입니다.
+서류와 면접을 통해 평생학습자전형의 입학 기회를 얻는 것은 지원자의 학업역량과 전공적합성 등을 종합적으로 평가받는 과정이 포함되어 있습니다. 따라서 지원자는 서류 제출 시 주어진 요구사항을 충실히 준수하고, 면접에서는 진실한 자기소개와 입학 후 계획을 잘 준비하는 것이 중요합니다.
+더 자세한 정보나 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6548367453914092</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다.
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+위와 같은 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 장소에 대한 언급이 없다고 말하고 있지만, 원본 텍스트는 대기실 및 입실시간에 대한 정보를 제공하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 실기고사 장소에 대한 정보가 없다는 점에서 일관성이 떨어집니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보를 제공하므로, 이와 관련된 내용이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대해 관련된 정보를 제공하고 있으며, 추가적인 정보 출처를 안내하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있으며, 실기고사에 대한 구체적인 장소에 대한 언급이 없다는 점에서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있으며, 실기고사에 대한 추가 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 이해를 돕지 못할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.3895715833591665</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사에 대한 구체적인 장소에 대한 언급이 없습니다. 실기고사는 보통 각 대학의 캠퍼스에서 이루어지지만, 정확한 장소는 모집 안내서나 입학 사정관에게 문의해야 합니다.
+만약 더 자세한 정보를 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 직접 대학에 연락하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지 않는다고 주장하지만, 원본 텍스트에는 실기고사 대기실 및 입실시간에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 무시하고 있으며, 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 실기고사에 대한 정보를 포함하고 있으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 찾는 질문에 대한 답변으로는 적절하지 않지만, 웹사이트를 방문하라는 제안은 관련성이 있습니다. 그러나 원본 텍스트의 정보를 반영하지 않기 때문에 완전한 관련성은 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 흐름이 없습니다. 원본 텍스트의 정보를 반영하지 않기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 않지만, 체육학과의 실기고사에 대한 질문에 대한 대안적인 정보를 제공하려고 시도합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.3462842953748049</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과에 대한 실기고사 관련 내용은 없습니다. 만약 체육학과의 실기고사를 알고 싶다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 자세한 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, 전화 통보에 대한 내용이 원본 텍스트와 상충합니다. 원본에서는 전화로 개별 연락을 하지 않는다고 명시되어 있으나, 생성된 응답에서는 일부 학생에게 개별 전화 통보를 할 수 있다고 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 전화 통보가 이루어지지 않는다고 명확히 설명하고 있지만, 생성된 응답에서는 전화 통보가 이루어질 수 있다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시 충원합격자 발표에 대한 정보를 포함하고 있습니다. 그러나 원본의 핵심 내용인 전화 통보에 대한 정보가 잘못 전달되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 메시지를 전달하지 못하고 있습니다. 전화 통보에 대한 모순된 정보가 흐름을 방해합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전화 통보에 대한 잘못된 진술로 인해 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 일관성과 사실성에서 문제가 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있어 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 모순된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0.5990767516358685</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 홈페이지에서 개별 조회 가능합니다. 또한, 일부 학생에게는 개별 전화 통보를 통해 안내를 드릴 수 있습니다. 자세한 일정은 입학안내 홈페이지에서 확인해주세요. 더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인하시거나, 직접 학교에 문의주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수시모집 결과에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0.8872570318432577</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 2023학년도 경찰행정학과의 수시모집 결과에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 사실을 부정하고, 수능 응시 없이도 다양한 전형을 통해 지원할 수 있다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 응시 없이도 지원할 수 있다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 아닌 다른 전형에 대한 정보를 제공하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 일관성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 다소 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 따라서 일관성은 있지만, 원문과의 관계에서 다소 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계에서 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계에서 혼란을 줄 수 있는 내용이 포함되어 있어 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.4709000957821299</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2024학년도에는 수능 응시를 하지 않더라도 다양한 전형을 통해 지원이 가능합니다. 예를 들어, '학생부교과', '실기/실적(경기실적우수자전형)', '학생부종합(성인학습자전형)' 등에 지원할 수 있습니다.
+특히, '학생부교과'와 '학생부종합' 전형에서는 수능 점수가 필요하지 않습니다. 대신 학생부 성적, 진로선택과목 성적 등을 평가받습니다.
+더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문 내용을 부정하고 있으며, 2024년 나군의 경우 정시 모집이 없다고 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없으며, 정시 지원 가능성에 대한 정보가 상충합니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 모집이 없다고 주장합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변으로서 일부 관련성이 있지만, 정시 지원 가능성에 대한 원문 내용을 무시하고 다른 전형에 대한 정보로 대체하고 있습니다. 따라서 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 부족합니다. 정시 지원 가능성에 대한 정보가 명확히 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충되는 정보를 포함하고 있으며, 특히 정시 모집에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과의 일치성이 떨어집니다. 원문에서 요구하는 정보와는 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.5565878524152097</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>2024년 나군의 경우, 정시 모집은 없으며, 학생부교과 및 학생부종합 등의 특별전형으로만 지원할 수 있습니다. 고등학교 졸업 후 10년이 지났다면, 평생학습자전형이나 성인학습자전형 등을 통해 지원 가능합니다.
+특히, 평생학습자전형과 성인학습자전형인 경우 재직 경력이 필요하며, 재직기간은 3년 이상이어야 합니다. 또한, 지원 자격 증빙서류를 제출해야 하므로, 근무 기록 등 관련 서류들을 준비해두시는 것이 좋습니다.
+추가로, 정확한 지원 가능 여부와 필요한 서류들은 공지된 모집요강을 확인하시거나, 대학 입학처에 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.7666546205610143</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수할 수 있으며, 마감 시간은 각각의 일정에 따라 다르지 않으므로 주의해야 합니다. 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출할 수 있으며, 마감 시간은 각각의 일정에 따라 다르지 않으므로 주의해야 합니다. 서류 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 보내는 방식입니다.
+4. **실기고사 (태권도학과)**: 2024년 1월 16일 (화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **실기고사 (디자인조형학과)**: 2024년 1월 17일 (수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 오후 2시 이후 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)까지 (은행 마감 시간 내)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 오전 9시
+     - 1차: 2024년 2월 14일 (수) 오전 9시부터 오후 4시까지
+     - 2차: 2024년 2월 15일 (목) 오전 9시
+     - 2차: 2024년 2월 15일 (목) 오전 9시부터 오후 4시까지
+   - 충원 합격자 발표 및 등록: 
+     - 3차 이후: 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지
+이러한 일정을 참고하여 원서를 접수하고, 필요한 서류를 제출하며, 실기고사를 준비하시길 바랍니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다. 필요하신 경우 "https://ipsi. deu. ac. kr/main. do"로 이동해 보세요.</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.8773595591202966</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 홈페이지: 입학 안내 홈페이지에서 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 홈페이지: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **실기고사**:
+   - 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과: 2024년 1월 17일 (수)
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 2024년 2월 14일 (수) 부터 진행
+6. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19시 ~ 2024년 2월 20일 (화) 18시까지
+이 일정은 동의대학교 정시 모집에 대한 일반적인 일정이며, 각 단과대학 및 모집단위별로 세부 일정이 다를 수 있으므로 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원문에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 심각한 오류가 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있으나, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 표현이 다소 어색할 수 있으나 전반적인 유창성은 양호합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 어느 정도의 일관성은 있지만, 원문과의 관계에서 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자가 지원할 수 없다는 원문의 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 심각한 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>0.6606832762384661</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 "&lt;나&gt;군 학생부종합(조기취업형계약학과전형)"입니다. 이 전형에서는 학교생활기록부와 서류평가, 면접평가를 통해 지원자를 평가합니다. 수능 점수 미응시자도 이러한 평가 기준에 따라 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 3차까지 이루어졌다고 주장하지만, 원본 텍스트에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있습니다. 또한, 전년도 충원 합격 인원은 36명이라고 언급되어 있으나, 생성된 응답에서는 이 정보가 전혀 반영되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 3차까지 이루어졌다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 그 relevancy가 크게 떨어집니다. 원본 텍스트의 핵심 정보인 충원 합격 인원에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 문장에서 문법적 오류가 있으며, 중국어가 섞여 있어 읽기 어려운 부분이 있습니다. 그러나 전반적으로 문장은 이해할 수 있는 수준입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 일관된 흐름이 부족합니다. 정보가 명확하게 연결되지 않고, 문장 간의 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트의 정보와 충돌하는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 일부 내용은 적절하지만, 전반적으로 부적절한 정보가 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 문장이 이해하기 어려운 부분이 있지만, 전반적으로는 이해할 수 있는 수준입니다. 그러나 언어 혼합으로 인해 혼란스러운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.4967849953713951</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2024년 데이터에서는 전자공학과의 충원 합격이 3차까지 이루어졌습니다. 구체적으로는:
+- 1차 충원 합격일은 2024년 2월 14일(수)입니다.
+- 2차 충원 합격일은同样是关于电子工程系的补录情况，根据提供的2024年数据，在第三次补录时该系完成了补录。具体来说：
+- 第一次补录是在2024年2月14日(星期三)。
+- 第二次补录是在2024年2月15日(星期四)。
+因此，电子工程系在第三次补录时完成了补录。如果您需要更多详细信息或有其他问题，请告诉我！
+```</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 그러나 공식 웹사이트를 언급한 점은 긍정적입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있습니다. 전화번호가 제공되었음에도 불구하고 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호가 없다고 잘못 해석하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>0.66679546382497</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 필요하시다면 공식 웹사이트를 방문하여 확인해 보시거나, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 주세요. 해당 페이지에서 연락처 정보를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 명확한 처리 방침을 제공하지 않으며, 원본 텍스트에서 언급된 내용과 일치하지 않는 부분이 있습니다. 원본 텍스트는 전화 연락이 두절될 경우 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답은 대기 중이라는 표현을 사용하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전화 통화가 되지 않는 경우의 처리에 대한 정보가 모호하여 일관성이 떨어집니다. 원본 텍스트의 명확한 지침과는 다르게 해석될 수 있는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화 통화가 되지 않는 경우의 처리에 대한 명확한 답변을 제공하지 않아서 약간의 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 중국어가 포함되어 있어 한국어 사용자에게는 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 내용을 바탕으로 한 명확한 답변이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 있으며, 전화 통화가 되지 않는 경우의 처리에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 전화 통화가 되지 않는 경우에 대한 처리 방침이 명확하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 중국어가 포함되어 있어 일부 독자에게는 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.605783276221349</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우는 해당 합격자를 대기处理中，如果电话联系不上，则会如何处理？根据提供的信息，在“合격자 발표 및 등록금 납부 충원 합격자 3차 이후 (개별 전화 통보) 발표”和“合格者公布及注册金缴纳补充合格者3次之后（个别电话通知）登记”部分，并没有明确说明如果电话联系不上会如何处理。因此，建议直接访问学校官网或联系入学管理团队以获取详细信息。
+https://ipsi.deu.ac.kr/main.do 에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 요구 사항을 잘 반영하고 있으며, 대부분의 정보를 정확하게 전달하고 있습니다. 그러나 "최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024년 2월 16일까지 제출해야 합니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류 요구 사항을 나열하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다."라는 문구는 원본 텍스트의 내용과 약간의 차이를 보이며, 이로 인해 일관성 점수가 완벽하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 모든 정보를 포함하고 있으며, 요구되는 서류에 대한 명확한 설명을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 조금 더 매끄럽게 연결될 수 있었던 점이 아쉬움으로 남습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 "유형에 따라 다르게 요구됩니다."라는 문구가 전체적인 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일치하지만, 추가된 정보로 인해 약간의 부정확성이 존재합니다. 원본 텍스트에 명시된 내용만을 기준으로 할 때, 정확성 점수는 4로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "유형에 따라 다르게 요구됩니다."라는 문구가 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 더 간결하게 표현될 수 있었던 점이 아쉬움으로 남습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7763312043492243</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르게 요구됩니다. 
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+위와 같은 서류를 준비해야 합니다. 추가로, 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 발급)를 2024년 2월 16일까지 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 필요한 서류를 나열하고 있습니다. 그러나 추가된 발급 방법에 대한 정보는 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 발급 방법에 대한 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 맥락에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>0.8415062596801083</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 언급하지 않고, 대신 정보가 없다고 말하고 있습니다. 그러나 웹사이트를 방문하라는 제안은 유용합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트와 일부분 일치하지만, 기회균등 전형이 존재하지 않는다는 중요한 사실을 간과하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 찾기 위한 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 "deu. ac. kr" 부분에서 불필요한 공백이 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 기회균등 전형의 존재 여부에 대한 명확한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 정확한 정보를 제공하지 않으며, 기회균등 전형이 존재하지 않는다는 사실을 명확히 하지 않았습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 유용하고 관련성이 높지만, 사실적 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 언급이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 기회균등 전형에 대한 명확한 정보가 부족하여 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>0.6228789510301281</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형이 선발되는지에 대한 내용이 없습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학처와 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 절사 기준이 없다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 수능 최저등급과 관련된 정보를 제공하고 있습니다. 따라서 주제와의 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있으나, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석될 수 있는 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 원문의 맥락을 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7052254431797953</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐(사회탐구)의 경우 평균산출이지만, 절사되는 기준은 없습니다. 따라서 2.5 등급은 2.5 등급으로 학생부종합전형에 반영될 것입니다.
+만약 더 자세한 정보가 필요하시거나 다른 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 언급하고 있지만, 원본 텍스트에서는 3차까지 발표가 이루어진다고 명시되어 있습니다. 또한, 1차 등록과 2차 등록에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 3차까지의 발표를 언급하고 있지만, 생성된 응답은 4차 발표를 언급하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 완전한 관련성을 가지지 않습니다. 그러나 발표 일정에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 발표와 등록에 대한 정보가 혼합되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 발표 차수에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.8258874570300244</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다. 
+1. **1차 발표**: 2024년 2월 14일 (수) 09:00
+2. **1차 등록**: 2024년 2월 14일 (수) 09:00~16:00
+3. **2차 발표**: 2024년 2월 15일 (목) 09:00
+4. **2차 등록**: 2024년 2월 15일 (목) 09:00~16:00
+이후에는 3차 이후의 합격자 발표 및 등록이 개별 전화 통보를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 명칭 변경에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 수능 성적 기준에 대한 정보는 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 명칭 변경에 대한 정보가 포함되어 있지만, 수능 성적 기준에 대한 정보는 누락되어 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 주요 내용인 수능 성적 기준에 대한 정보는 포함되어 있지 않아 관련성 점수는 중간입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 수능 성적 기준에 대한 정보를 정확하게 반영하지 않으며, 명칭 변경에 대한 정보는 있지만, 전체적인 정확성은 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 주요 내용과는 다소 동떨어져 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.4894936135422295</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과가 금융경영학과로 명칭 변경되었으며, 해당 학과는 정시 모집군이 변경되지 않았습니다. 따라서 현재 정보를 바탕으로 e비즈니스학과의 수능 성적 기준을 확인하기 어렵습니다.
+추가적으로, 정시 전형에 추가 합격 가능 여부는 여러 요소로 결정되며, 주요 요인은 다음과 같습니다:
+1. **모집 인원 및 지원 인원**: 2024학년도 e비즈니스학과의 모집 인원과 지원 인원을 확인해야 합니다.
+2. **경쟁률**: 현재 지원자의 수와 모집 인원을 비교하여 경쟁률을 파악합니다.
+3. **전형요소 반영 비율**: 서류, 면접 등 각 요소에 대한 가중치를 고려합니다.
+특히, 2024학년도 e비즈니스학과가 금융경영학과로 명칭 변경되었으므로, 해당 학과의 정시 모집군과 전형요소 반영 비율을 확인해야 합니다. 
+만약 자세한 정보를 얻기 위해 더 많은 데이터가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급에 대한 구체적인 데이터를 제공하지 않으며, 다른 학과의 평균 등급을 통해 추정하는 방식으로 접근하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 다른 학과의 평균 등급을 언급하면서 e비즈니스학과의 합격 가능성을 높게 평가하고 있습니다. 이는 원본 텍스트의 "합격하기 어려울 수 있다"는 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 정시 등급에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 평균 등급에 대한 직접적인 언급이 부족합니다. 그러나 관련 학과의 평균 등급을 언급함으로써 어느 정도의 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 다른 학과의 평균 등급을 통해 추정하는 방식이 정확성을 떨어뜨리고 있습니다. 원본 텍스트의 정보와는 다소 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 정보가 부정확하여 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.7483677852009377</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 e비즈니스학과의 정시 등급 평균을 확인해보겠습니다. 제공된 정보로는 e비즈니스학과에 대한 구체적인 데이터가 없습니다. 그러나 다른 관련 학과들의 경쟁률과 평균 등급을 통해 추정할 수 있습니다.
+e비즈니스학과와 가장 유사한 학과는 중어중국학과와 일본학과일 것입니다. 이 두 학과의 평균 등급을 참고하겠습니다:
+- 중어중국학과: 평균 등급 5.21
+- 일본학과: 평균 등급 4.60
+e비즈니스학과의 경우, 정시 등급이 5.3이라면 이는 두 학과의 평균보다 약간 높은 수준입니다. 따라서 e비즈니스학과의 평균 등급도 5.21~4.60 사이일 가능성이 있습니다.
+따라서, 정시 등급이 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 높아 보입니다. 그러나 확실한 것은 아니므로, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나 입학처와 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다"는 사실을 무시하고 평균 점수와 경쟁률에 대한 추가 정보를 제공하고 있습니다. 이는 원본 텍스트의 핵심 사실과 일치하지 않으며, 잘못된 해석을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 평균 점수와 경쟁률을 언급하며 합격 가능성을 다르게 해석하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지만, 원본의 핵심 메시지인 예비 38번의 합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성은 있지만, 원본의 주제를 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 논리적인 흐름이 약간 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다. 원본의 사실과 일치하지 않는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트의 메시지를 잘 전달하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 원본의 핵심 메시지를 왜곡하고 있어 의미적으로 완전히 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.5875866195110572</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>38번 학생의 경우, 평균 점수와 표준 편차를 고려하면 경쟁률이 높은 학과에 지원하는 것이 어렵다고 볼 수 있습니다. "2024학년도 주요 변경사항"에서 보아서 e비즈니스학전공의 모집인원과 지원 인원을 살펴보면, 경쟁률이 3.67으로 높습니다.
+특히, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 309.71이며, 이정도 점수가면 충분히 예비합격을 얻기 어렵다고 판단됩니다.
+만약에 더 자세한 정보나 추가적인 지원 전략이 필요하다면, "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 대학 입시 관련 전문가와 상담하는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 점수와 표준 편차에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 평균 등급이 3.37이라고 명시되어 있는데, 생성된 응답에서는 평균 점수를 353.48로 잘못 언급하고 있습니다. 또한, 3.44라는 점수가 평균 등급보다 낮다고 주장하지만, 원본 텍스트에 따르면 3.44는 평균 등급보다 높은 점수입니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.44가 간호학과에 합격하기 어려울 수 있다고 명시하고 있지만, 생성된 응답은 3.44가 낮은 점수라고 주장하며 혼란을 초래합니다. 또한, 원본 텍스트의 정보와 상충하는 내용을 포함하고 있어 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 명확한 이해를 방해합니다. 그러나 합격 가능성에 대한 요인들을 언급하고 있어 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 읽기 쉬운 문장 구조를 가지고 있지만, 일부 문장은 어색하게 표현되어 있습니다. 특히, 중국어 문장이 포함되어 있어 한국어 문맥에서 부자연스럽습니다. 따라서 유창성 점수는 중간 정도입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 정보의 흐름이 매끄럽지 않고 논리적인 연결이 부족합니다. 특히, 원본 텍스트와의 연결이 약해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 평균 점수와 관련된 잘못된 수치가 포함되어 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 따라서 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 특히, 잘못된 정보와 혼합된 내용이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 부분에서 이해하기 어려운 요소가 있지만, 전반적으로는 이해할 수 있는 내용입니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>0.5313439672748648</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>3.44이라는 점수는 동의대학교 간호학과의 평균 점수인 353.48보다 낮습니다. 그러나 표준 편차가 4.66이므로, 이 정도 차이는 합격 가능성에 큰 영향을 미치지 않을 수 있습니다. 하지만 경쟁률이 높고 지원 인원도 많기 때문에, 점수만으로는 확실한 합격을 보장할 수 없습니다.
+합격 가능성은 다음과 같은 요인들로 결정됩니다:
+1. **평균 점수와 표준 편차**: 동의대학교 간호학과의 평균 점수가 353.48이고, 표준 편차가 4.66이므로, 3.44는 상당히 낮은 점수입니다.
+2. **경쟁률**: 경쟁률이 6.59로 매우 높습니다.
+3. **지원 인원**: 지원 인원이 145명으로 많습니다.
+따라서, 3.44라는 점수만으로는 합격 가능성은 매우 낮다고 볼 수 있습니다. 그러나 실제 합격 여부는 여러 요인들이综上所述，该学生的成绩在东义大学护理学专业录取中几乎没有希望。尽管平均分和标准差可以提供一定的参考，但考虑到极高的竞争率和支持者的大量，仅凭3.44的成绩很难被录取。
+因此，建议该学生重新评估自己的情况，并考虑其他可能的选择或准备来提高成绩。如果确实想申请东义大学护理学专业，那么需要更加努力地复习和提升成绩。</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.52라는 점수가 낮다고 주장하지만, 원문에서는 2.52가 간호학과의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 상충하는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 2.52가 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 2.52가 낮은 점수라고 주장하여 서로 모순되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원문에서 제공하는 정보와는 다소 다른 방향으로 나아가고 있습니다. 그러나 여전히 간호학과의 합격 가능성에 대한 질문에 답하고 있으므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2.52 점수가 낮다고 주장하지만, 이는 원문에서 제공하는 정보와 상반됩니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원문과의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.6361252361784958</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 상당히 낮은 수준입니다. 동의대학교 간호학과의 경우, 평균적인 지원자들의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합이 353.48이며, 이는 2.52보다 훨씬 높습니다.
+또한, 간호학과의 경우 경쟁률이 매우 높아서, 평균적인 지원자들이 충원 합격을 하기 위해서는 상당히 높은 점수를 받아야 합니다. 이 점수는 350점 이상일 가능성이 큽니다.
+따라서, 현재의 성적인 2.52로는 동의대학교 간호학과에 최종 합격하기가 매우 어려울 것으로 보입니다. 더 높은 점수를 받거나 다른 전형을 고려해보시는 것이 좋겠습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 평균 성적이 353.48이라는 수치는 원본 텍스트에 명시되어 있지 않으며, 이는 잘못된 정보입니다. 또한, "합격 가능성이 낮다"는 원본의 결론과는 다소 상충하는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 경쟁률에 대한 언급과 평균 성적 비교는 원본의 주제와 일치하지 않습니다. 따라서 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하는 것과 관련된 정보를 제공하고 있으며, 경쟁률과 학생부 종합 평가에 대한 언급은 관련성이 있지만, 원본 텍스트의 핵심 내용인 정시 성적에 대한 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 잘못된 수치와 원본 텍스트의 결론과 상충하는 내용이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.6217902703033948</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>3.7의 성적을 가지고 간호학과에 지원한다면, 경쟁률이 매우 높은 것을 고려해야 합니다. 간호학과의 경우 2024학년도에 65명 모집하면서 145명이 지원하여 6.59의 경쟁률을 보였습니다.
+현재 제공된 데이터만으로는 정확한 합격 가능성을 예측하기 어렵지만, 평균 성적인 353.48과 비교하면 3.7의 성적은 상대적으로 낮은 편입니다. 그러나 학생부 종합 평가를 통해 특별히 인정받을 수 있는 경우도 있으므로, 간호학과에서 요구하는 학생부 교과성적 반영방법과 전형 요소 등을 잘 준비한다면 가능성을 높일 수 있을 것입니다.
+더 자세한 정보는 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하시거나, 학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 성적에 대한 정보를 제공하지만, 제공된 성적(2.58)이 평균보다 낮다고 잘못 해석하고 있습니다. 원본 텍스트에서는 2.58이 평균보다 높은 성적이라고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 2.58이 평균보다 높다고 하였으나, 생성된 응답에서는 이를 낮다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실관계에서 큰 오류가 있으며, 2.58이 평균보다 낮다고 잘못 진술하고 있습니다. 이는 원본 텍스트의 사실과 상반됩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실관계와 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 사실관계의 오류로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 사실관계의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.6402184387691259</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집에 대한 지원 자격 및 평균 성적을 보면, 다음과 같은 정보가 있습니다.
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균**: 353.48
+당신의 성적인 2.58은 국어, 수학, 영어 등급 평균을 반영한 점수로 보이는데, 이는 간호학과에 대한 지원 자격 기준보다 낮습니다. 간호학과의 경우 평균적으로 353.48이라는 점수가 필요하며, 당신의 성적은 그 수치를 크게 밑돌고 있습니다.
+따라서, 현재 정보로는 정시 전형으로 동의대학교 간호학과에 합격하기 어려울 것으로 보입니다. 하지만, 정시 모집에서 합격 여부는 단순히 평균 성적뿐만 아니라 경쟁률, 지원 인원 등 다양한 요인에 의해 결정되므로, 최종 합격 여부는 입학처의 심사 결과를 기다려야 합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비번호와 합격 여부에 대한 여러 요인이 영향을 미친다는 점을 언급하고 있으며, 이는 사실에 부합합니다. 그러나 경쟁률에 대한 구체적인 수치(5.33)는 원문에 명시되어 있지 않으므로, 이 부분은 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 경쟁률에 대한 언급이 원문에 포함되어 있지 않아 일관성이 떨어집니다. 예비번호가 낮을수록 합격 확률이 높다는 주장은 원문에서 직접적으로 언급되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 적절하게 관련된 정보를 제공합니다. 예비번호와 합격 가능성에 대한 논의는 원문과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 경쟁률에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확하지만, 경쟁률 수치와 같은 추가 정보는 원문에 명시되어 있지 않아 정확성에 약간의 의문을 제기합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 적절한 맥락을 유지하고 있습니다. 그러나 경쟁률에 대한 언급은 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0.6691208183533138</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 결론을 내리기 어렵습니다. 예비번호와 실제 합격 여부에는 여러 요인이 영향을 미치므로, 최종 합격 여부를 결정하는 것은 입학처에서 처리합니다.
+만약 더 자세한 정보나 조언이 필요하다면, https://ipsi. deu. ac. kr/main. do 를 참조하거나 동의대학교 입학처에 직접 문의하시는 것이 좋습니다. 입학처에서는 개인적인 상황을 고려하여 최종 결정을 내립니다.
+현재까지의 통계를 보면 게임공학과의 경쟁률이 5.33으로 높은 편입니다. 따라서 예비번호가 낮을수록 더 높은 확률로 합격할 수 있습니다만, 이는 단순 통계일 뿐 개인적인 요인도 중요합니다.
+정확한 답변을 위해서는 입학처에 직접 문의하시는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 4개 영역의 평균 점수와 경쟁률에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 수능 4개 영역 등급 평균이 4.78이라고 명시되어 있지만, 생성된 응답에서는 평균보다 낮다고 언급하고 있습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에 없던 내용입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 4.16의 점수가 평균보다 높다고 언급했으나, 생성된 응답에서는 평균보다 낮다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주어진 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 추가 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트의 구체적인 수치와는 일치하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용을 제공하지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 원본의 핵심 내용과의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 수능 점수와 관련된 평균 점수에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0.7016971297048535</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수가 주어졌을 때, 동의대학교 게임공학과에 지원하는 경우 추가 합격 가능성은 다음과 같이 판단됩니다.
+게임공학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균은 430.10이고, 표준 편차는 5.32입니다. 이 데이터를 바탕으로, 주어진 수능 점수가 평균보다 약간 낮습니다.
+그러나, 추가 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. 지원자의 경쟁률: 게임공학과의 경우 5.33이라는 경쟁률이 있으므로, 주어진 점수가 평균보다 약간 낮더라도 충분히 합격할 가능성이 있습니다.
+2. 기타 평가 요인: 서류평가, 면접 등 다른 평가 항목에서 우수한 성적을 받았다면 추가 합격 가능성은 높아질 수 있습니다.
+따라서, 주어진 수능 점수가 평균보다 약간 낮지만, 경쟁률이 5.33이라는 상대적으로 낮은 수치이고, 다른 평가 항목에서 우수한 성적을 받았다면 추가 합격 가능성은 있습니다.
+추가로 확인하고 싶으시다면, 동의대학교 입학사정관실에 문의하시거나, 제공된 데이터를 바탕으로 더 자세히 분석해보는 것이 좋습니다. 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 정시 성적 3.75가 최초등록자로 가능할 것으로 보인다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "정시모집군의 변경 사항"에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 정시모집군의 변경 사항에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 특정한 데이터에 기반한 판단을 제공하고 있으나, 생성된 응답은 그에 대한 불확실성을 추가하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 경영정보학과의 정시 성적에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 추가된 정보가 원본 텍스트에 명시되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 약간 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0.6776133400159481</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시모집군이 어떻게 변경되었는지 확인해야 합니다. 제공된 정보에서 정확한 변경 사항을 찾지 못했습니다. 만약 변경 사항이 있다면, 그에 따라 최초등록자로 가능한 점수를 결정할 수 있습니다.
+따라서, 현재 정보만으로 판단하면 경영정보학과의 정시 성적 3.75는 최초등록자로 가능할 것으로 보입니다. 하지만 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do"를 방문하여 최신 변경 사항을 확인하시기 바랍니다.
+만약 변경 사항이 있다면, 해당 정보에 따라 결정해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준을 확인하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 현재 정시 등급이 4.2인 경우 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경영정보학과의 정시 성적 기준에 대한 명확한 정보를 제공하지 않으므로 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 명확한 결론을 제시하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 그러나 동의대학교의 공식 웹사이트를 참조하라는 제안은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 경영정보학과의 정시 성적 기준에 대한 명확한 정보를 제공하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.7149200270501253</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 성적 기준을 확인하기 어렵습니다. 경영정보학과의 정시 모집단위와 해당 과목의 등급 기준이 필요합니다. 
+특히, 경영정보학과의 경우 각 전형별로 다른 기준을 적용할 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처에 직접 문의하는 것이 좋습니다.
+만약 동의대학교의 공시된 기준을 확인하고 싶다면, "수능(일반학생전형) 최초합격자" 섹션에서 해당 단과대학과 모집단위의 성적 기준을 찾아보세요.</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보를 제공하지만, 주어진 성적 5.33이 평균보다 높다고 잘못 해석하고 있습니다. 실제로는 5.33이 평균보다 낮은 성적이므로, 합격 가능성이 낮다는 원래의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 주어진 성적이 평균보다 높다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 모집 상황과 성적 평균에 대한 정보를 제공하고 있지만, 주어진 질문에 대한 직접적인 답변보다는 추가적인 정보가 포함되어 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 다소 약해 보입니다. 주어진 성적에 대한 결론이 원본 텍스트의 내용과 일치하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 주어진 성적이 평균보다 높다고 잘못 진단하고 있으며, 이는 원본 텍스트의 사실과 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주어진 질문에 대한 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.6080752930941988</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 모집 상황을 살펴보겠습니다.
+- **모집 인원**: 9명
+- **지원 인원**: 95명
+- **경쟁률**: 10.56
+- **충원 합격 (후보순위)**: 33명
+**성적 평균 및 표준 편차**:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+  - 평균: 313.13
+  - 표준 편차: 5.75
+- **영어 등급**:
+  - 평균: 3.25
+  - 표준 편차: 0.82
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 
+  - 평균: 434.13
+  - 표준 편차: 7.46
+**분석**:
+- 성적 평균은 313.13이고, 표준 편차는 5.75입니다.
+- 주어진 성적이 5.33이므로, 이 점수는 평균보다 상당히 높습니다.
+**결론**:
+주어진 성적은 동의대학교 경영정보학과 일반학생전형으로 충분한 기회를 가질 수 있습니다. 그러나 실제 합격 여부는 지원자의 전체 성적뿐만 아니라, 다른 지원자들의 성적 분포와 경쟁률 등 다양한 요인에 의해 결정됩니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 동의대학교 입학처 웹사이트를 참조하거나, 직접 문의하는 것이 가장 좋습니다. 더 자세한 정보를 얻기 위해 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 지원자의 성적이 평균보다 높다는 점을 언급하고 있습니다. 그러나 "확정적인 답변을 드리기 어렵습니다"라는 문구는 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "확정적인 답변을 드리기 어렵습니다"라는 부분은 원본의 긍정적인 합격 가능성과 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하기 위한 여러 요소를 고려하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 "확정적인 답변을 드리기 어렵습니다"라는 문구가 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 성적과 관련된 정보도 정확하게 전달하고 있습니다. 그러나 일부 정보가 다소 모호하게 표현되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 긍정적인 평가를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0.6351806346207027</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 지원하려면, 정시 모집군과 수능 성적 등 여러 요소를 고려해야 합니다. 하지만 주어진 정보만으로는 확정적인 답변을 드리기 어렵습니다.
+주요 사항은 다음과 같습니다:
+1. **정시 모집군**: 바이오응용공학부의 정시 모집군이 2024년에는 어떻게 변경되었는지 확인해야 합니다.
+2. **수능 성적**: 주어진 수능 점수가 3.33 정도라면, 해당 과목의 최저 기준을 충족하고 있는지 확인해야 합니다.
+주어진 정보만으로는 정확한 답변을 드릴 수 없으므로, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하여 최신 정보와 변경 사항을 확인하시기 바랍니다. 또한, 해당 학과의 최저 기준 점수와 모집군 변경 사항 등을 확인하시면 더 정확한 판단이 가능할 것입니다.
+만약 추가적인 자세한 정보가 필요하다면, 동의대학교 입학처에 문의하시거나 직접 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮다는 사실을 충분히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원본 텍스트의 내용과는 다소 상충하는 부분이 있습니다. 원본 텍스트는 4.4의 등급이 평균보다 낮아 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 지원 가능성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 가능성에 대해 언급하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 가능성을 언급하지만, 원본 텍스트의 평균 등급과 관련된 정확한 정보를 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성, 일관성, 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 의미를 적절하게 전달하고 있으며, 전반적으로 맥락에 맞는 내용을 포함하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있는 점이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.7309498876371817</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>4.4의 등급을 가지고 일반학생전형인 정시로 방사선학과에 지원하는 것은 가능하지만 경쟁률이 높아서 불확실한 부분이 있습니다.
+방사선학과는 주로 과학적 지식과 실기 능력이 요구되는 학과입니다. 따라서 수능 4개 영역의 등급뿐만 아니라, 특히 과학영역의 성적이 중요할 것입니다. 또한, 방사선학과에서는 실기 부분도 중요한 평가 요소로 작용하므로, 실기 능력을 갖추고 있는지 확인해보세요.
+현재 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 더 자세한 내용은 해당 대학의 입시 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 학교 관계자에게 직접 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 방사선학과의 평균 등급과 합격 가능성에 대한 정보를 무시하고 있으며, 제공된 데이터가 방사선학과와 관련이 없다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 방사선학과의 평균 등급에 대한 언급을 무시하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 방사선학과에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보를 반영하지 않고 있습니다. 관련성은 있지만, 충분하지 않습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 방사선학과의 평균 등급에 대한 정보를 무시하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 품질이 전반적으로 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 많습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0.6506994883327212</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 방사선학과와 관련이 없어, 정확한 답변을 드리기 어렵습니다. 방사선학과의 모집요강이나 합격 기준 점수를 확인하기 위해서는 해당 대학의 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조해 주세요. 특히 정시모집의 경우, 각 과목별 평균 점수와 표준 편차 등을 통해 합격 가능성을 예측할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 언급하고 있지만, 제공된 정보에서 명시된 평균 성적(4.12)과 비교하여 3.66이라는 성적이 평균보다 높다고 잘못 해석하고 있습니다. 또한, 농어촌 전형에 대한 구체적인 정보가 부족하다는 점에서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 언급하고 있지만, 응답의 일부 내용이 원본 텍스트와 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, "현재 제공된 데이터에서 경찰행정학전공에 대한 정보는 없습니다."라는 부분은 원본 텍스트에서 제공된 정보를 무시하는 것으로 보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있으며, 농어촌 전형에 대한 추가적인 조언도 포함되어 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 해석이 잘못되었고, 농어촌 전형에 대한 구체적인 정보가 부족하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 정보와 조언을 제공합니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.5641744194724296</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3.66이라는 점수를 가지고 경찰행정학전공의 농어촌 전형에 지원하셨다면, 현재 제공된 데이터만으로는 확정적으로 합격 가능 여부를 판단하기 어렵습니다. 
+경쟁률과 충원 합격자 수가 중요하지만, 실제 합격 기준은 여러 요소로 구성됩니다. 예를 들어, 국어+수학+탐구(2개)의 표준 변환 점수 합, 영어 등급, 수능 4개 영역 등급 등을 고려해야 합니다.
+현재 제공된 데이터에서 경찰행정학전공에 대한 정보는 없습니다. 따라서 정확한 판단을 위해서는 해당 전공의 최종 합격 기준을 확인하시거나, 대학 입학처 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하여 자세한 정보를 얻으시는 것이 좋습니다.
+특히, 농어촌 전형의 경우 추가 서류 제출 등이 필요할 수 있으므로, 대학 입학처와 직접 연락하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 점수가 2등급에 해당한다고 언급하고 있지만, 원문에서는 특정 학과에 대한 합격 가능성을 언급하고 있습니다. 따라서, 정보의 정확성에 있어 일부 부정확한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 점수와 관련된 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 합격 가능성과는 일치하지 않습니다. 두 응답 간에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 점수와 합격 가능성에 대한 정보를 제공하고 있지만, 원문에서 제시된 특정 학과에 대한 언급이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제 간의 흐름이 자연스럽습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 점수에 대한 정보를 제공하지만, 원문에서 제시된 특정 학과에 대한 합격 가능성에 대한 정보가 누락되어 있습니다. 따라서 정확성에 있어 일부 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원문과의 연결이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.5370012702582924</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>25번의 점수는 2등급에 해당합니다. 현재 제공된 정보로는 2등급의 점수가 필요하기 때문에, 원서를 제출한 경우 이 점수로 합격할 확률이 매우 낮다고 볼 수 있습니다.
+하지만 정시 합격 여부는 여러 요인에 따라 결정되며, 예비 점수가 최종적으로 변경될 수도 있다는 점을 기억해야 합니다. 또한 면접이나 서류 평가 등 다른 요소들이 합격 가능성에 영향을 미칠 수 있으므로, 모든 준비를 철저히 하여 최선을 다하는 것이 중요합니다.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입학사정관이나 관련 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서 법경찰행정학부가 존재하지 않는다고 명시하고 있습니다. 따라서 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히 법경찰행정학부에 대한 정보가 없다는 점에서 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하려고 하지만, 법경찰행정학부에 대한 정보가 없다는 점에서 원본 텍스트의 핵심 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 떨어집니다. 특히 법경찰행정학부의 존재 여부에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원적인 품질도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>0.6474923217771051</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 법경찰행정학부의 정시 모집 단과대학 및 모집단위, 정원 내 모집 인원 등에 대한 자세한 내용을 알 수 없습니다. 이와 관련하여 더 구체적인 정보를 얻으려면 다음과 같은 방법들을 고려해 보세요:
+1. **동의대학교 홈페이지**를 방문하여 법경찰행정학부의 정시 모집 상황과 평균 성적 등을 확인합니다.
+2. **입학처에 문의**하여 법경찰행정학부의 정시 모집 관련 자세한 정보를 얻습니다.
+현재 제공된 데이터는 인문사회과학대학, 상경대학 등의 학과별 모집 상황을 나타내고 있으므로, 법경찰행정학부에 대한 직접적인 정보는 확인하기 어렵습니다. 따라서 동의대학교 홈페이지나 입학처에 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.
+더 궁금하신 점이 있다면, "https://ipsi. deu. ac. kr/main. do"로 이동하여 자세히 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 평균 등급에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급(6.33)과 수능 4개 영역 등급 평균(7.08)에 대한 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었고, 정확한 정보가 부족하다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정보와는 일관성이 떨어진다. 두 학과의 정보가 혼합되어 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제인 아동학과에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요하다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달된다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 혼란을 줄 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정확한 정보가 누락되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 의미 전달에는 한계가 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 정보가 혼합되어 있어 약간의 혼란을 줄 수 있다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>0.6192577126496297</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경쟁률과 충원 합격자를 확인해보겠습니다.
+- **경쟁률**: 6.59 (지원 인원 145명, 모집 인원 22명)
+- **충원 합격자 수**: 37명
+보육가정상담학과의 경쟁률이 매우 높습니다. 평균 등급 5.33은 상당히 높은 점수입니다. 그러나 이는 단순히 평균을 기준으로 판단하는 것이 아니라, 지원자의 전체 성적 분포와 경쟁률을 고려해야 합니다.
+- **평균 등급**: 2024학년도 동의대학교 보육가정상담학과의 평균 등급은 3.37입니다.
+- **표준 편차**: 0.29
+이러한 상황에서, 평균 등급 5.33은 매우 높은 점수로, 충원 합격자 수가 37명이라는 것을 고려하면, 이 점수는 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만, 정확한 합격 여부를 판단하기 위해서는 동의대학교 입학처에서 제공하는 최종 합격선을 확인해야 합니다. 따라서, **https://ipsi. deu. ac. kr/main. do** 를 방문하여 최신 정보와 자세한 조건을 확인하시기 바랍니다.
+이 정보를 바탕으로, 5.33의 등급은 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 그러나 최종 합격 여부는 입학처에서 발표하는 최종 합격선에 따라 결정됩니다.</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있지만, 합격 가능성을 판단하는 요소에 대한 언급은 원본 텍스트에 명시되어 있지 않은 내용입니다. 따라서 일부 정보는 정확하지만, 추가된 내용이 원본과 일치하지 않아 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성을 판단하는 요소에 대한 설명이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 예비 번호에 따른 합격 가능성에 대한 일반적인 설명만을 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 원본의 핵심 내용과 직접적으로 연결되지 않아 약간의 관련성이 떨어집니다. 그러나 전반적으로 주제와 관련된 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 완전한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 점수를 낮추었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 합격 가능성을 판단하는 요소에 대한 정보는 원본에 포함되어 있지 않아 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일치성 및 정확성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>0.6519240745643018</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 충원 합격 3차에서는 예비 12번을 받으셨습니다. 이는 아직 최종 합격 여부를 결정하지 않은 상태입니다.
+합격 가능성은 다음과 같은 요소들에 따라 판단될 수 있습니다:
+- 전형요소 반영 비율 (서류:70%, 면접:30%)
+- 서류 제출 내용의 완성도
+- 면접 성적
+현재 정보만으로는 정확한 합격 가능성 예측이 어렵습니다. 최종 합격 여부는 학교에서 발표하는 공고를 통해 확인해야 합니다.
+추가적으로, 학교 입학관리팀에 문의하시거나, 입학안내 홈페이지에서 최신 정보를 확인하시는 것이 좋습니다. 더 자세한 내용은 https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과의 평균 등급을 5.22로 언급했지만, 실제로는 4.18로 나타나 있습니다. 이는 명백한 사실 오류입니다. 또한, 아동학과의 평균과 표준 편차에 대한 정보도 잘못된 것으로 보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 주장하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명시하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 유아교육학과에 대한 잘못된 정보로 인해 일부 관련성이 떨어집니다. 그러나 전반적으로 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 일관되지만, 유아교육학과에 대한 잘못된 정보로 인해 논리적 흐름이 방해받고 있습니다. 따라서 완전한 일관성을 유지하지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 유아교육학과의 평균 등급에 대한 정보가 잘못되어 있으며, 이는 응답의 정확성을 크게 저하시킵니다. 또한 아동학과에 대한 정보도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 발생하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절한 부분이 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>0.7479693800829919</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 평균이 4.82이고 표준 편차가 0.33인 '아동학과'의 경우에도 충분한 성적일 것입니다. 유아교육학과의 평균 등급은 5.22이며, 표준 편차는 0.29로 아동학과보다 약간 높습니다.
+따라서 4.75라는 점수는 유아교육학과에서도 충분히 경쟁력을 갖추고 있을 것입니다. 그러나 지원 인원이 많기 때문에 경쟁률이 높을 수 있습니다. 따라서 이 성적로 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높아서 당락은 불확실합니다.
+자세한 정보는 입학사정관의 평가 기준과 지원자의 전체적인 자질 등을 고려하여 결정될 것입니다. 따라서 최종 결과를 알기 위해서는 입학사정관들의 심사를 거쳐야 합니다.</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과의 평균 환산등급과 표준편차에 대한 정보를 제공하지만, 원본 텍스트의 주요 사실인 아동학과의 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 누락되어 있습니다. 또한, 평균 환산등급이 4.15라는 정보는 원본 텍스트와 일치하지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 평균 환산등급과 관련된 수치가 다릅니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 입학 가능성에 대한 질문에 답변하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다른 언어로 작성되어 있어 일관성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 특히, 다른 언어로 작성된 부분이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 평균 환산등급에 대한 정보가 잘못되었습니다. 이는 정확성 점수를 낮춥니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적 적절성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 다른 언어로 작성된 부분이 있어 일부 독자에게 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.5549117173504134</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 의료보건생활대학 보육가정상담학과의 경우, 평균 환산등급이 4.15이며 표준편차는 0.12입니다. 현재您的问题似乎是关于东国大学保育·家政咨询学专业的录取情况。根据提供的数据，该专业的平均换算等级为4.15，标准差为0.12。您提到的换算等级是4.16。
+基于这些信息，您的换算等级接近于该专业的平均值，并且略高于平均值。考虑到标准差较小（0.12），这意味着录取学生的换算等级分布相对集中。因此，您的换算等级在合理范围内，有一定的机会被录取。
+但是，最终是否能够被录取还取决于其他因素，如竞争情况、招生名额等。建议您关注东国大学的官方信息或咨询相关部门以获取更准确的信息和指导。
+如果需要更多信息或有疑问，请访问 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 查看最新数据和政策。</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 언급하고 있지만, "정시모집이 변경되었거나 신설되지 않았습니다"라는 추가 정보는 확인되지 않은 내용입니다. 따라서 일부 사실은 정확하지만, 추가된 정보는 불확실합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가를 일관되게 언급하고 있지만, 다른 학과의 평균 등급에 대한 언급은 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가에 대한 질문에 답변하고 있으며, 관련된 다른 학과의 정보도 제공하고 있습니다. 그러나 주제에서 약간 벗어난 부분이 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 다른 학과에 대한 언급이 원본 텍스트의 주제와 완전히 일치하지 않기 때문에 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가에 대한 정확한 정보를 제공하지만, 다른 학과의 평균 등급에 대한 정보는 확인되지 않은 내용입니다. 따라서 정확성 점수는 중간 정도입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 약간의 부족함이 있지만, 전반적으로 유용한 정보를 제공합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 다소 불확실하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.5416619083578407</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집이 변경되었거나 신설되지 않았습니다. 따라서 현재 정보로는 소프트웨어융합학과를 정시로 지원할 수 없다는 결론을 내릴 수 있습니다.
+만약 다른 학과에서 지원하려면, 예를 들어 "로봇자동화공학과 (가)"에 지원하는 경우를 보겠습니다. 로봇자동화공학과의 평균 등급은 3.66이므로, 소프트웨어융합학과와 유사한 학과에서 정시로 지원하려면 비슷한 수준의 등급을 받아야 할 것으로 예상됩니다.
+하지만 정확한 정보를 얻기 위해서는 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 잘 반영하고 있으며, 서류 평가와 면접 고사에 대한 언급이 정확합니다. 그러나 "따로 준비해야 하는 서류는 없습니다"라는 부분은 원문에서 명시된 "준비해야하는 서류와 자세한 사항은 'https://ipsi.deu.ac.kr/main.do'에서 확인하시기 바랍니다"와 다소 상충할 수 있습니다. 따라서 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "따로 준비해야 하는 서류는 없습니다"라는 주장은 원문에서의 서류 준비 필요성에 대한 언급과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 소프트웨어융합학과의 평가 방식과 준비 서류에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장에서 주제가 전환되는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 서류 준비에 대한 부분에서 약간의 부정확성이 있습니다. 따라서 높은 점수를 주지만 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다. 다만, 일부 표현에서 약간의 모호함이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>0.7366947099820427</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 함께 서류 평가를 통해 학생부 종합전형에서 결정됩니다. 특히 세특 내용은 면접평가 영역 중 '전공적합성'에 해당되므로 중요하게 보실 필요가 있습니다.
+따로 준비해야 하는 서류는 없습니다. 제출서류에는 학생부 온라인 제공 동의, 고교 졸업(예정)자 또는 검정고시 출신자/외국고교 졸업(예정)자의 경우 제출서류가 필요하지 않습니다.
+만약 추가로 준비해야 하는 것이 있다면, 면접 질문 공통문항을 미리 읽어보시고 지원동기와 학업계획, 전공적합성에 대한 내용을 철저히 준비해 보세요. 특히 소프트웨어융합학과의 특성을 고려하여 창의적인 답변을 준비하시면 좋습니다.
+더 궁금하신 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 정보가 아닌 중어중국학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교 소프트웨어공학부에 대한 질문에 중어중국학과의 정보를 제공하고 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0.5478295573159234</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인문사회과학대학 중어중국학과의 경우, 정시 성적 평균이 5.21이며 표준 편차가 0.33입니다. 이는 비교적 높은 수치를 나타내고 있습니다.
+현재 제시된 정시 성적이 4.08이라면, 중어중국학과의 평균보다 낮습니다. 그러나 표준 편차가 작다는 점을 고려하면, 이는 상대적으로 안정적인 성적입니다. 하지만 최종 합격 가능성은 모집단위와 지원 인원 등 다양한 요인에 따라 달라질 수 있습니다.
+중어중국학과의 경우, 경쟁률이 1.63으로 낮고, 지원 인원도 39명이라는 점을 고려하면, 정시 성적이 4.08이라도 충분히 합격 가능성은 있는 것으로 보입니다. 그러나 최종 결정은 모집인원과 지원 인원 등 여러 요인에 따라 달라질 수 있으므로, 정확한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점을 언급하고 있으나, "제공된 데이터는 다른 학과들의 정보만을 포함하고 있습니다."라는 부분은 사실과 다릅니다. 원문에서는 다른 학과들의 정보에 대한 언급이 없기 때문에 이 부분은 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, "제공된 데이터는 다른 학과들의 정보만을 포함하고 있습니다."라는 문장은 원문과 모순됩니다. 원문에서는 소프트웨어융합학과에 대한 정보가 없다고만 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보와 조언을 제공합니다. 그러나 원문에서 제공된 정보와의 연결이 부족한 부분이 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, "제공된 데이터는 다른 학과들의 정보만을 포함하고 있습니다."라는 부분은 사실과 다릅니다. 이로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 부정확한 정보로 인해 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0.7425989824772944</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>2024학년도의 소프트웨어융합학과에 대한 정보가 제공되지 않았습니다. 제공된 데이터는 다른 학과들의 정보만을 포함하고 있습니다.
+다만, 일반적으로 정시 모집에서 평균 5등급은 경쟁률이 높은 편입니다. 소프트웨어융합학과의 경우도 비슷할 수 있으며, 정확한 경쟁률이나 합격 기준 점수를 확인하려면 해당 학과의 정보를 찾아보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대학 입학처에 직접 문의해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 평균 입학 성적과 표준 편차를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공된 정보에 따르면 4.28이라는 점수는 최초합격자와 최종등록자의 평균 등급보다 높다고 명시되어 있습니다. 따라서, 합격 가능성이 높다고 판단할 수 있는 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성에 대한 판단이 모호하게 표현되어 있습니다. 원본 텍스트는 합격 가능성이 높다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본에서 제공된 구체적인 데이터에 대한 언급이 부족합니다. 그러나, 지원 방법에 대한 조언은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 결론과 다소 상충하는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 명확한 판단을 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 명확한 결론이 부족하여 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0.6232876241002759</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학부에 지원할 경우, 합격 가능성은 어느 정도일지 정확히 판단하기 위해서는 해당 학과의 평균 입학 성적과 표준 편차 등을 고려해야 합니다.
+위에서 제공된 정보로는 동의대학교 신소재공학부의 정시 모집에 대한 통계적인 데이터가 없습니다. 따라서, 4.28이라는 점수만으로 판단하기 어렵습니다.
+추천되는 방법은 다음과 같습니다:
+1. 동의대학교 신소재공학부의 최근 입학 성적 통계를 확인합니다.
+2. 해당 학과의 평균 입학 성적과 표준 편차 등을 찾아보세요.
+3. 자신의 점수와 비교하여 판단합니다.
+만약에 위 정보가 부족하다면, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 더 자세한 정보를 확인하거나, 학교 관계자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 중국어 부분은 불필요한 정보로, 한국어 부분과 중복되는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 한국어와 중국어 부분이 서로 일관되지 않습니다. 중국어 부분은 한국어 내용과는 다소 다른 맥락을 제공하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 한국어 부분은 문법적으로 잘 작성되어 있으며 읽기 쉽습니다. 그러나 중국어 부분은 한국어와의 연결이 부족하여 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 한국어 부분은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 중국어 부분이 포함되어 있어 전체적인 일관성에 영향을 미칩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있습니다. 그러나 중국어 부분은 불필요한 정보로 정확성에 약간의 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 특히 관련성과 정확성이 뛰어납니다. 그러나 일관성과 유창성에서 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 한국어 부분은 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 중국어 부분은 맥락과의 일치성이 떨어져 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 한국어 부분은 명확하고 이해하기 쉬우나, 중국어 부분이 포함되어 있어 전체적인 이해도를 약간 저하시킵니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.5079381926696357</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自荐书。对于一般学生来说，申请主要依赖于高考成绩和其他标准化测试的成绩（如英语等级）。因此，在申请一般学生类型时，通常不需要提交额外的自荐书。
+만약에 일반학생전형으로 지원한다면 자기소개서를 제출하지 않아도 됩니다. 지원은 주로 수능 성적과 다른 표준화된 테스트 점수 (예: 영어 등급)에 의존합니다. 따라서 추가적인 자기소개서는 필요하지 않습니다.
+만약 자세한 정보가 필요하시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 평가하기 위해 각 단과대학의 평균 점수와 표준 편차를 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 특정 학과의 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 정보 추가가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 점수 4.5에 대한 합격 가능성을 논의하고 있습니다. 그러나 특정 학과에 대한 정보가 추가되면서 원본 텍스트의 일반적인 내용과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 점수 4.5에 대한 추가 모집 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보를 제공하고 있지만, 원본 텍스트에 명시된 특정 학과의 평균 점수와 표준 편차는 포함되어 있지 않으므로 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 추가로 인해 약간의 일관성 및 정확성 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.6728332685468659</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>4.5라는 수능 점수가 주어졌을 때, 어떤 단과대학의 추가 모집에 지원할 수 있는지 판단하기 위해서는 해당 단과대학의 수능 전형성적 산출방법과 경쟁률 등을 고려해야 합니다.
+주어진 데이터를 바탕으로 다음과 같은 단과대학들을 검토해볼 수 있습니다:
+1. **간호학과**: 평균 4.72, 표준 편차 0.24
+2. **임상병리학과**: 평균 3.97, 표준 편차 0.20
+3. **방사선학과**: 평균 3.67, 표준 편차 0.12
+간호학과의 경우 경쟁률이 높아서 4.5로는 충분히 합격할 수 있는 확률이 낮습니다. 하지만 다른 단과대학들에 지원하면 더 큰 가능성은 있습니다.
+**임상병리학과와 방사선학과**의 경우 평균 점수가 4.5 이하로, 4.5라는 점수는 충분히 합격할 수 있는 범위입니다. 특히 경쟁률이 낮은 임상병리학과나 방사선학과에서는 더 높은 확률로 합격할 수 있습니다.
+따라서, 4.5라는 점수를 가지고 추가 모집에 지원하는 것이 좋을 것 같습니다. 각 단과대학의 전형성적 산출방법과 경쟁률 등을 확인하여 가장 적합한 대학을 선택하시기 바랍니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi. deu. ac. kr/main. do)를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 정시 모집 등급 기준에 대한 직접적인 정보를 제공하지 않지만, 원본 텍스트의 내용을 바탕으로 합격 가능성에 대한 정보를 언급하고 있습니다. 그러나 원본 텍스트의 평균 등급에 대한 구체적인 수치를 명시하지 않았기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 정시 모집 등급 기준에 대한 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 평균 등급에 대한 언급이 없기 때문에 일관성이 낮다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 신소재공학부의 정시 모집 등급 기준에 대한 질문에 적절하게 대응하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 구체적인 수치나 세부 사항을 생략하여 정확성이 다소 떨어집니다. 그러나 전반적으로 정확한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 구체적인 수치나 세부 사항이 부족하여 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0.6061030627322985</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 모집 등급 기준이 직접적으로 나와 있지 않습니다. 정시 모집 등급은 매년 변동되므로, 가장 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 자료를 확인해보시는 것이 좋습니다. 해당 페이지에서 모집 단과대학 및 학과별 정시 모집 등급 기준을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 447점의 표준 점수가 신소재공학과의 평균 점수보다 높다는 점을 언급하고 있지만, 작년의 평균 점수인 378.15점과의 비교를 명확히 하지 않고 있습니다. 그러나 전반적으로 사실에 기반한 정보가 포함되어 있어 높은 점수를 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 관련된 정보를 제공하지만, "확실한 답변을 드리기 어렵습니다"라는 문구는 원본 텍스트의 긍정적인 가능성과 상충하는 부분이 있습니다. 따라서 일관성 점수는 중간 정도로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 신소재공학과의 합격 가능성과 관련된 정보를 잘 다루고 있으며, 원본 텍스트의 내용과 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 높은 점수를 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 문장에서 정보의 흐름이 약간 어색할 수 있어 완벽한 점수는 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "확실한 가능성을 보장하지는 않습니다"라는 표현이 다소 모호하게 느껴질 수 있습니다. 전반적으로 정확한 정보가 포함되어 있어 높은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다. 전반적으로 적절한 의미 전달이 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다. 따라서 높은 점수를 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7066429338188146</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 동의대학교에서 어떤 단과대학의 최종 평균 점수로 환산될 수 있는지 확인하기 위해서는 작년의 실제 데이터와 비교해야 합니다. 주어진 정보만으로는 확실한 답변을 드리기 어렵습니다.
+특히, 작년 신소재공학과의 표점이 447점보다 약간 높았다는 점은 참고할 만합니다. 하지만 이는 단순 비교가 아닌, 다양한 요인(예: 지원자 수, 경쟁률 등)에 의해 결정되는 것이므로 확실한 가능성을 보장하지는 않습니다.
+더 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하거나, 직접 동의대학교 입학처에 문의하는 것이 가장 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.
+만약 추가적인 도움이 필요하시다면, 해당 웹사이트에서 제공하는 자료나 문의 방법을 활용해보세요.</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 지원자의 성적이 4.3 등급대에서 4.1~4.2로 예상된다고 언급하고 있지만, 원본 텍스트에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 명시하고 있습니다. 따라서, 응답이 원본의 내용을 완전히 반영하지는 않지만, 일부 사실을 포함하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 여러 요인에 따라 합격 가능성이 달라질 수 있다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치하지만, 원본에서 제시된 평균 성적과 비교하는 부분이 누락되어 있습니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 지원자의 성적과 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본의 구체적인 성적 데이터에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 구체적인 데이터와 비교하는 부분이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 구체적인 성적 데이터와 비교하는 부분이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 데이터와 비교하는 부분이 부족하여 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본의 구체적인 성적 데이터에 대한 언급이 부족하여 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 다만, 원본 텍스트의 구체적인 데이터와 비교하는 부분이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0.5304018326790767</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 예상된다면, 신소재공학과 일반학생전형에 합격할 수 있을지는 여러 요인에 따라 다릅니다. 주요 요인으로는 모집인원, 지원 인원, 경쟁률 등이 있습니다.
+현재 제공된 정보만으로는 정확한 판단을 내리기 어렵습니다. 신소재공학과의 모집인원, 지원 인원, 경쟁률 등을 확인해 보시고, 자신의 성적과 전형에 대한 이해를 바탕으로 합격 가능성을 평가하는 것이 좋겠습니다.
+더 자세한 정보나 분석이 필요하시다면, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 입학 상담을 받는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 평균 점수와 등급이 원본 텍스트의 정보와 일치하지 않습니다. 원본 텍스트에서는 국어 + 수학 + 탐구의 표준 변환 점수 합이 평균 301.87로 제시되었으나, 생성된 응답에서는 419.33으로 잘못 기재되었습니다. 영어 등급 또한 원본 텍스트의 평균 4.13과 다르게 4.08로 잘못 기재되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 서로 다른 수치를 제시하고 있습니다. 이는 일관성을 저해합니다. 특히, 평균 점수와 등급이 서로 다르기 때문에 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 전형에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 수치가 잘못되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 수치의 오류로 인해 내용의 신뢰성이 떨어지므로 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 신뢰성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 수치가 원본 텍스트와 일치하지 않기 때문에 정확성이 낮습니다. 특히, 평균 점수와 등급이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 수치로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7653182432490984</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과로 지원하는 경우, 수능(일반학생전형)에서 평균적으로 필요한 점수를 확인해보겠습니다.
+인공지능학과는 나군 수능(일반학생전형)으로 모집되며, 전형요소 반영비율은 수능 100%입니다. 따라서 성적에 크게 의존하는 전형이라고 볼 수 있습니다.
+2024년 동의대학교 인공지능학과 나군 수능(일반학생전형)에서 평균적으로 필요한 점수는 다음과 같습니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 419.33
+- **영어 등급**: 4.08
+이러한 성적을 기반으로 지원하면 좋은 경쟁력을 갖추게 될 것입니다.
+만약 더 자세한 정보나 추가적인 도움이 필요하시다면, 제공된 데이터를 바탕으로 한 분석이나 전형요소 반영비율에 대한 설명 등을 드릴 수 있습니다. 필요한 경우 "https://ipsi. deu. ac. kr/main. do"로 접속하여 자세한 정보를 확인해보시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 충원 합격 가능성에 대한 정보를 제공하고 있지만, 일부 수치와 정보가 정확하지 않거나 원본 텍스트와 일치하지 않습니다. 예를 들어, "공과대학 전체 평균 수능 등급"과 "표준 편차"의 수치가 원본 텍스트에 명시된 내용과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 특정 학과의 평균 수능 등급과 표준 편차에 대한 정보가 일관되지 않습니다. 또한, 충원 합격 가능성에 대한 분석이 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 충원 합격 가능성에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다르기 때문에 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답의 일부 정보는 정확하지 않거나 원본 텍스트와 일치하지 않습니다. 특히, 평균 수능 등급과 표준 편차에 대한 수치가 잘못된 것으로 보입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.6937013926924284</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급을 가지고 동의대학교 공과대학의 모집단위 중 어느 곳에 충원될 수 있을지는 여러 요인에 따라 다릅니다. 주요 요인으로는 해당 단과대학 및 모집단위의 평균 수능 등급, 표준 편차, 지원 인원, 경쟁률 등을 고려해야 합니다.
+주어진 데이터를 바탕으로 분석해보겠습니다:
+1. **공과대학 전체 평균 수능 등급**: 535.29 (가산점 포함)
+2. **표준 편차**: 0.68
+3. **지원 인원**: 67명
+이 데이터를 바탕으로 추정해보면, 5.27이라는 등급은 평균보다 약간 낮습니다. 그러나 표준 편차가 작다는 점을 고려하면, 이 수치는 상대적으로 좋은 성적일 수 있습니다.
+특히, 지원 인원이 적고 경쟁률이 낮은 모집단위에서는 5.27이라는 등급으로 충원될 가능성이 높습니다. 예를 들어, **"신소재공학과, 분자나노공학과"**의 경우, 평균 수능 등급이 378.15이고 표준 편차가 21.81입니다. 이와 비교하면 5.27은 상대적으로 높은 점수로 볼 수 있습니다.
+따라서, **"신소재공학과, 분자나노공학과"** 또는 **"건축학과(5년제), 건축공학과, 토목공학과, 도시공학과"**와 같은 경쟁률이 낮고 지원 인원이 적은 모집단위에서는 충원될 가능성이 높습니다.
+하지만, 최종 결정은 입학사정관의 심사 결과에 따라 하므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 더 자세한 정보와 개인적인 상황을 고려하여 결정하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 수능 등급을 4.87로 제시하고 있지만, 원본 텍스트에서는 4.49로 명시되어 있습니다. 또한, 서류와 면접의 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 따라서, 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 평균 수능 등급과 관련된 정보가 다르며, 서류와 면접의 반영 비율에 대한 언급이 원본 텍스트에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 정시 성적에 대한 합격 가능성을 논의하고 있지만, 원본 텍스트의 핵심 정보인 평균 등급과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 평균 수능 등급을 잘못 제시하고 있으며, 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 정보가 혼란을 줄 수 있어 점수는 약간 낮습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.7056786044063332</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부에 대한 정보를 보면, 해당 학과는 전형요소 반영비율이 다음과 같습니다:
+- 서류: 60%
+- 면접: 40%
+또한, 이전 년도의 평균 수능 4개 영역 등급은 4.87이며, 표준 편차는 0.13입니다.
+당신이 정시 성적 4.2를 가지고 있다면, 서류와 면접에서 좋은 점수를 받을 경우 합격 가능성은 있습니다. 하지만, 이전 년도의 평균 수능 등급인 4.87보다 낮기 때문에 경쟁률이 높아서 합격하기는 어려울 것입니다.
+정확한 합격 가능성을 판단하려면, 동의대학교 소프트웨어공학부에서 제공하는 최신 정보를 확인하거나, 해당 대학에 문의하시는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보는 포함하고 있지만, 정시 성적 3.92에 대한 합격 가능성에 대한 명확한 판단을 제공하지 않고 있습니다. 따라서, 일부 사실이 누락되었거나 불완전하게 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 명확한 결론을 제시하지 않아 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 그에 대한 확신이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부와 관련된 정보를 제공하고 있으며, 지원 가능성에 대한 질문에 답변하려고 시도하고 있습니다. 그러나 원본 텍스트의 핵심 포인트를 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 흐르고 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 합격 가능성에 대한 명확한 판단을 제공하지 않아 정확성이 떨어집니다. 원본 텍스트의 정보를 충분히 반영하지 못했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 명확한 결론이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0.6589697382408213</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 대한 모집단위와 전형 방법이 명확하지 않습니다. 정시 성적 산출 점수가 3.92일 경우, 해당 학과의 일반학생전형에 지원 가능할지 여부를 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. 화학환경공학부의 모집단위와 전형 방법
+2. 동의대학교의 정시 성적 산출 방식
+특히, 각 학과별로 다른 전형 방법이 적용될 수 있으므로, 해당 학과의 공지사항이나 입학처 웹사이트를 확인해보시는 것이 좋습니다.
+만약 추가 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 동의대학교 입학처 웹사이트에서 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합 평균이 276.61이라고 명시되어 있지만, 생성된 응답에서는 303.44로 잘못 기재되어 있습니다. 또한, 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 제시된 평균 성적과 생성된 응답의 성적이 서로 다르며, 이는 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 잘못된 통계로 인해 신뢰성이 떨어집니다. 그러나 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으나, 잘못된 통계로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 이해할 수 있지만, 신뢰할 수 있는 데이터가 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0.8186267594304161</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능(일반학생전형) 최초합격자들의 성적을 보면, 국어+수학+탐구(가산점 포함) 표준 변환 점수 합 평균은 303.44로, 표준 편차는 10.34입니다. 또한 수능 4개 영역 등급의 평균은 4.65이고, 표준 편차는 0.21입니다.
+이러한 통계를 바탕으로, 정시 성적이 4.25인 경우, 이는 평균보다 약간 낮은 수준입니다. 그러나 표준 편차가 작다는 점을 고려하면, 이 정도의 차이는 크게 문제가 되지 않을 것입니다.
+따라서, 정시 성적이 4.25인 경우에도 동의대학교 화학환경공학부에 수능(일반학생전형)으로 합격할 가능성이 있습니다. 하지만 확실한 것은 아니므로, 최종 합격 여부는 모집단위와 지원 인원 등 다양한 요소가 결합되어 결정되므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 평균 성적에 대한 정보를 제공하고 있지만, 주어진 데이터와는 다소 다른 정보를 포함하고 있습니다. 예를 들어, 다른 학과의 평균 성적을 언급하고 있어 영화학과에 대한 직접적인 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과에 대한 질문에 대해 다른 학과의 평균 성적을 언급하며, 이는 일관성이 떨어지는 부분입니다. 영화학과에 대한 정보가 부족하여 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과에 대한 질문에 관련된 정보를 제공하고 있지만, 다른 학과의 평균 성적을 포함하여 다소 주제에서 벗어난 부분이 있습니다. 그러나 여전히 영화학과와 관련된 정보를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 다른 학과의 정보를 포함함으로써 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과에 대한 합격 가능성을 언급하고 있지만, 다른 학과의 평균 성적을 포함하여 정확성이 떨어지는 부분이 있습니다. 영화학과에 대한 구체적인 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성에서 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 다른 학과의 정보를 포함하여 약간의 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0.6230780362409851</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 현재 제공된 데이터만으로는 확실한 답변을 드리기 어렵습니다. 영화학과의 경우 특정 단과대학이나 모집단위에 따라 평균 성적이 어떻게 되는지 등이 달라질 수 있기 때문입니다.
+현재 주어진 정보에서는 다음과 같은 단과대학들의 평균 성적을 확인할 수 있습니다:
+- 예술디자인체육대학 패션디자인학과: 4.46
+- IT융합부품소재공과대학 미래형자동차학과: 4.20
+- ICT공과대학 소프트웨어융합학과: 4.17
+이 중에서 가장 가까운 수치는 IT융합부품소재공과대학의 미래형자동차학과와 ICT공과대학의 소프트웨어융합학과입니다. 이들 학과들의 평균 성적은 4.20~4.46 범위에 있으므로, 4.2의 성적을 가지고 지원하셨다면 어느 정도 경쟁률이 있을 것으로 예상됩니다.
+하지만 정확한 합격 가능성은 해당 단과대학 및 모집단위의 최저 합격 점수와 경쟁률 등을 고려하여 판단해야 합니다. 따라서, 더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지(https://ipsi. deu. ac. kr/main. do) 또는 입학처에 문의하시는 것이 좋습니다.
+또한, 학생부종합전형에서는 성적 외에도 다양한 요소가 고려되기 때문에, 서류 및 면접 등에서도 좋은 평가를 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 단계가 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0.9007417601321263</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 면접관들은 지원자의 지원동기와 학업계획, 학업역량과 전공적합성 등을 종합적으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
